--- a/data/mall-cloud-alibaba/ums-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/ums-server_structure.xlsx
@@ -807,30 +807,30 @@
     <t>children</t>
   </si>
   <si>
+    <t>adminService</t>
+  </si>
+  <si>
     <t>resourceService</t>
   </si>
   <si>
-    <t>adminService</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>nickName</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>nickName</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -846,99 +846,99 @@
     <t>com.mtcarpenter.mall.mapper.UmsResourceCategoryMapper</t>
   </si>
   <si>
+    <t>spendTime</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>basePath</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>spendTime</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>jwtTokenUtil</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.security.util.JwtTokenUtil</t>
+  </si>
+  <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
+    <t>org.springframework.security.crypto.password.PasswordEncoder</t>
+  </si>
+  <si>
+    <t>adminMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsAdminMapper</t>
+  </si>
+  <si>
+    <t>adminCacheService</t>
+  </si>
+  <si>
+    <t>adminPermissionRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsAdminPermissionRelationMapper</t>
   </si>
   <si>
     <t>tokenHead</t>
   </si>
   <si>
+    <t>loginLogMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsAdminLoginLogMapper</t>
+  </si>
+  <si>
+    <t>adminRoleRelationDao</t>
+  </si>
+  <si>
     <t>adminRoleRelationMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.UmsAdminRoleRelationMapper</t>
   </si>
   <si>
-    <t>adminRoleRelationDao</t>
-  </si>
-  <si>
-    <t>jwtTokenUtil</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.security.util.JwtTokenUtil</t>
-  </si>
-  <si>
     <t>adminPermissionRelationDao</t>
   </si>
   <si>
-    <t>adminMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsAdminMapper</t>
-  </si>
-  <si>
-    <t>adminPermissionRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsAdminPermissionRelationMapper</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
-  </si>
-  <si>
-    <t>org.springframework.security.crypto.password.PasswordEncoder</t>
-  </si>
-  <si>
-    <t>loginLogMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsAdminLoginLogMapper</t>
-  </si>
-  <si>
-    <t>adminCacheService</t>
-  </si>
-  <si>
     <t>newPassword</t>
   </si>
   <si>
     <t>oldPassword</t>
   </si>
   <si>
+    <t>roleService</t>
+  </si>
+  <si>
     <t>tokenHeader</t>
   </si>
   <si>
     <t>umsAdminCacheService</t>
   </si>
   <si>
-    <t>roleService</t>
-  </si>
-  <si>
     <t>resourceCategoryService</t>
   </si>
   <si>
@@ -951,60 +951,60 @@
     <t>com.mtcarpenter.mall.security.component.DynamicSecurityMetadataSource</t>
   </si>
   <si>
+    <t>rolePermissionRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsRolePermissionRelationMapper</t>
+  </si>
+  <si>
+    <t>roleMenuRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsRoleMenuRelationMapper</t>
+  </si>
+  <si>
+    <t>roleResourceRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsRoleResourceRelationMapper</t>
+  </si>
+  <si>
+    <t>roleDao</t>
+  </si>
+  <si>
+    <t>rolePermissionRelationDao</t>
+  </si>
+  <si>
     <t>roleMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.UmsRoleMapper</t>
   </si>
   <si>
-    <t>rolePermissionRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsRolePermissionRelationMapper</t>
-  </si>
-  <si>
-    <t>rolePermissionRelationDao</t>
-  </si>
-  <si>
-    <t>roleResourceRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsRoleResourceRelationMapper</t>
-  </si>
-  <si>
-    <t>roleDao</t>
-  </si>
-  <si>
-    <t>roleMenuRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsRoleMenuRelationMapper</t>
+    <t>REDIS_KEY_ADMIN</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.security.service.RedisService</t>
+  </si>
+  <si>
+    <t>JWT_EXPIRATION</t>
   </si>
   <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
-    <t>REDIS_EXPIRE</t>
-  </si>
-  <si>
     <t>REDIS_KEY_RESOURCE_LIST</t>
   </si>
   <si>
-    <t>JWT_EXPIRATION</t>
-  </si>
-  <si>
     <t>REDIS_KEY_TOKEN</t>
   </si>
   <si>
-    <t>REDIS_KEY_ADMIN</t>
-  </si>
-  <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.security.service.RedisService</t>
-  </si>
-  <si>
     <t>memberLevelMapper</t>
   </si>
   <si>
@@ -1026,10 +1026,10 @@
     <t>permissionService</t>
   </si>
   <si>
+    <t>umsAdmin</t>
+  </si>
+  <si>
     <t>resourceList</t>
-  </si>
-  <si>
-    <t>umsAdmin</t>
   </si>
   <si>
     <t>applicationName</t>
@@ -15208,7 +15208,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -15222,7 +15222,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>138</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -15342,7 +15342,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>13</v>
@@ -15356,7 +15356,7 @@
         <v>77</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>13</v>
@@ -15390,7 +15390,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -15404,7 +15404,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -15446,7 +15446,7 @@
         <v>13</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -15460,7 +15460,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -15474,7 +15474,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -15488,7 +15488,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -15496,7 +15496,7 @@
         <v>86</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>13</v>
@@ -15510,7 +15510,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>13</v>
@@ -15558,7 +15558,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>30</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
@@ -15566,13 +15566,13 @@
         <v>110</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
@@ -15580,13 +15580,13 @@
         <v>110</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>219</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
@@ -15594,13 +15594,13 @@
         <v>110</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>289</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32">
@@ -15608,13 +15608,13 @@
         <v>110</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>222</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
@@ -15622,13 +15622,13 @@
         <v>110</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -15636,13 +15636,13 @@
         <v>110</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
@@ -15650,13 +15650,13 @@
         <v>110</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>296</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
@@ -15684,7 +15684,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38">
@@ -15692,7 +15692,7 @@
         <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>13</v>
@@ -15706,7 +15706,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>13</v>
@@ -15734,7 +15734,7 @@
         <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>13</v>
@@ -15748,13 +15748,13 @@
         <v>236</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
@@ -15762,13 +15762,13 @@
         <v>236</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44">
@@ -15776,13 +15776,13 @@
         <v>236</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -15796,7 +15796,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>144</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46">
@@ -15846,7 +15846,7 @@
         <v>248</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>13</v>
@@ -15908,7 +15908,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>67</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54">
@@ -15916,13 +15916,13 @@
         <v>163</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>315</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55">
@@ -15930,7 +15930,7 @@
         <v>163</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>13</v>
@@ -15944,13 +15944,13 @@
         <v>163</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>318</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
@@ -15958,13 +15958,13 @@
         <v>163</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>208</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58">
@@ -15972,13 +15972,13 @@
         <v>165</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -15986,13 +15986,13 @@
         <v>165</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
@@ -16000,13 +16000,13 @@
         <v>165</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>101</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -16014,13 +16014,13 @@
         <v>165</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>30</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62">
@@ -16028,13 +16028,13 @@
         <v>165</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -16042,13 +16042,13 @@
         <v>165</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>30</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64">
@@ -16056,13 +16056,13 @@
         <v>165</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
@@ -16070,13 +16070,13 @@
         <v>165</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>219</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -16084,13 +16084,13 @@
         <v>165</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>286</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -16098,13 +16098,13 @@
         <v>165</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>326</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -16140,13 +16140,13 @@
         <v>199</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>332</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71">
@@ -16154,13 +16154,13 @@
         <v>199</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>208</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72">
@@ -16182,7 +16182,7 @@
         <v>252</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>13</v>
@@ -16202,7 +16202,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
@@ -16216,7 +16216,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
